--- a/CourseDocs/ExtraResources.xlsx
+++ b/CourseDocs/ExtraResources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Documents\Astronomy\CourseDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021D5041-D680-40FD-B42E-18D366B2CE48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAF71A0-F21F-4E4A-BCBF-AFCEC849E92F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6863" yWindow="9248" windowWidth="15556" windowHeight="13619" activeTab="4" xr2:uid="{4E8BF544-0EF5-4BE7-85EF-9A39667A5938}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" activeTab="2" xr2:uid="{4E8BF544-0EF5-4BE7-85EF-9A39667A5938}"/>
   </bookViews>
   <sheets>
     <sheet name="Teaching" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
   <si>
     <t>Source</t>
   </si>
@@ -205,6 +205,90 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=0rHUDWjR5gg&amp;list=PL8dPuuaLjXtPAJr1ysd5yGIyiSFuh0mIL</t>
+  </si>
+  <si>
+    <t>Planetary Science Archive</t>
+  </si>
+  <si>
+    <t>Like the PDS but for ESA</t>
+  </si>
+  <si>
+    <t>https://archives.esac.esa.int/psa/#!Table%20View</t>
+  </si>
+  <si>
+    <t>It's Just Astronomical</t>
+  </si>
+  <si>
+    <t>Astro videos</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCdrIZ0-6i0xl31L63hhETdQ</t>
+  </si>
+  <si>
+    <t>Alyn Wallace</t>
+  </si>
+  <si>
+    <t>Astrophotographer WITNS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCKxQ3Dx6K95hpLpdJjTRIlg</t>
+  </si>
+  <si>
+    <t>World Wide Telescope</t>
+  </si>
+  <si>
+    <t>Telecope Observatory Simluation on the web</t>
+  </si>
+  <si>
+    <t>http://worldwidetelescope.org/webclient/</t>
+  </si>
+  <si>
+    <t>CAPER</t>
+  </si>
+  <si>
+    <t>CAPER Astro Meets</t>
+  </si>
+  <si>
+    <t>Online virtual meet for astronomy educators</t>
+  </si>
+  <si>
+    <t>http://www.caperteam.com/astrobasecamp</t>
+  </si>
+  <si>
+    <t>Planet Maker</t>
+  </si>
+  <si>
+    <t>Make your own planet!</t>
+  </si>
+  <si>
+    <t>http://planetmaker.wthr.us/</t>
+  </si>
+  <si>
+    <t>LASP-Colorado</t>
+  </si>
+  <si>
+    <t>Spectra Project and activities</t>
+  </si>
+  <si>
+    <t>https://lasp.colorado.edu/home/education/k-12/project-spectra/</t>
+  </si>
+  <si>
+    <t>APOD</t>
+  </si>
+  <si>
+    <t>Astronomy Picture of the Day</t>
+  </si>
+  <si>
+    <t>https://apod.nasa.gov/apod/astropix.html</t>
+  </si>
+  <si>
+    <t>Nick Strobel</t>
+  </si>
+  <si>
+    <t>Astronomy Notes</t>
+  </si>
+  <si>
+    <t>http://astronomynotes.com/</t>
   </si>
 </sst>
 </file>
@@ -257,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,6 +350,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -581,16 +668,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90855CAB-E8C8-4D28-9494-609A4392733A}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="2"/>
-    <col min="2" max="2" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="117.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -622,9 +710,24 @@
         <v>19</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{59E1478C-6CFF-4A8E-A9AD-11602024130D}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{64476A3F-C756-48DB-982C-CC08B2B8FCAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -632,16 +735,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77558BA-AF4C-43BB-A5D7-541D5D7DAC7E}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="2"/>
-    <col min="2" max="2" width="10.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.1328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -742,6 +845,34 @@
         <v>55</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{CE2F6126-0F58-4A63-8D4D-13481986D7A1}"/>
@@ -749,18 +880,20 @@
     <hyperlink ref="E4" r:id="rId3" xr:uid="{A2A4F858-6880-4CDD-86BE-75865373989E}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{AEDD95B2-9552-4F4B-B401-F844230790B8}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{B2889040-9C18-435B-9D7F-D6EC2829B8F2}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{164B3C5C-F60E-42AE-9A14-2EDF6A4F8529}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{06D9D1A7-7D4B-4631-8C72-0126927B0A85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC74960-B8A0-4065-A010-82787F36C067}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -830,11 +963,59 @@
         <v>31</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{58FB2B02-9E58-42C4-9B55-1C47044E51EF}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{18D598D7-AD92-4762-A626-405367263E1B}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{8F82095C-5913-4743-98FE-0AB77430A3A8}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{435205B3-359E-4974-A4CC-747E0FBB6060}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{52BC48F8-8743-4318-B49B-74F704507B6D}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{A51F6D22-50F3-4135-9D83-31AE22C62585}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{8CF68DBD-D38D-4904-9C12-D13A3B651959}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -842,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18B3E14-35A6-4CC1-926E-F1E30EF4E194}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -905,29 +1086,45 @@
         <v>40</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{855ADD98-E721-44BA-AFAA-76C387843D47}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{33DD7C47-559E-42DB-A7E4-AB064E5EB460}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{90EDA2BA-4F44-4C30-BFDD-B628C125851D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5ABBB2-9357-4245-BBBF-58D6B85C5916}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="2"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -986,11 +1183,26 @@
         <v>48</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{CA3941D2-FF40-45AA-B7AF-373469614518}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{CEBF5D13-CA59-4738-BAD7-EE8CBCEC168D}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{01DF1D64-DAF3-4720-ADB9-0B80BFA80167}"/>
+    <hyperlink ref="E5" r:id="rId4" location="!Table%20View" xr:uid="{FFA89798-7DEF-4F65-8FC8-5FACCC00B432}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CourseDocs/ExtraResources.xlsx
+++ b/CourseDocs/ExtraResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Documents\Astronomy\CourseDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAF71A0-F21F-4E4A-BCBF-AFCEC849E92F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7034B5E6-5ACD-4A22-A63B-E3E275CA751B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" activeTab="2" xr2:uid="{4E8BF544-0EF5-4BE7-85EF-9A39667A5938}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
   <si>
     <t>Source</t>
   </si>
@@ -289,6 +289,21 @@
   </si>
   <si>
     <t>http://astronomynotes.com/</t>
+  </si>
+  <si>
+    <t>JPL/NASA</t>
+  </si>
+  <si>
+    <t>Mars 2020 Resources</t>
+  </si>
+  <si>
+    <t>https://mars.nasa.gov/mars2020/participate/name-the-rover/learning-resources/</t>
+  </si>
+  <si>
+    <t>Explore Earth and Space with Art</t>
+  </si>
+  <si>
+    <t>https://www.jpl.nasa.gov/edu/learn/project/explore-earth-and-space-with-art/</t>
   </si>
 </sst>
 </file>
@@ -890,10 +905,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC74960-B8A0-4065-A010-82787F36C067}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1007,6 +1022,28 @@
         <v>83</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{58FB2B02-9E58-42C4-9B55-1C47044E51EF}"/>
@@ -1016,6 +1053,8 @@
     <hyperlink ref="E6" r:id="rId5" xr:uid="{52BC48F8-8743-4318-B49B-74F704507B6D}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{A51F6D22-50F3-4135-9D83-31AE22C62585}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{8CF68DBD-D38D-4904-9C12-D13A3B651959}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{329AAF0A-A0F1-42B6-B9E8-9A48F07D8DE9}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{2AFA9BEB-8FF3-40FE-A410-FAE4028EA24A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CourseDocs/ExtraResources.xlsx
+++ b/CourseDocs/ExtraResources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Documents\Astronomy\CourseDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7034B5E6-5ACD-4A22-A63B-E3E275CA751B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC0DA9A-A973-4EAE-947F-494571313D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="38596" windowHeight="21196" activeTab="2" xr2:uid="{4E8BF544-0EF5-4BE7-85EF-9A39667A5938}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>Source</t>
   </si>
@@ -304,6 +304,15 @@
   </si>
   <si>
     <t>https://www.jpl.nasa.gov/edu/learn/project/explore-earth-and-space-with-art/</t>
+  </si>
+  <si>
+    <t>SIMULATION LIST</t>
+  </si>
+  <si>
+    <t>List of HTML, Native, and Java Astro SIMS</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1UN2LIh8TIoAYmp20fA9wYNC4XeJsuFte7fp4hPGfrMI/edit#gid=0</t>
   </si>
 </sst>
 </file>
@@ -905,10 +914,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC74960-B8A0-4065-A010-82787F36C067}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1044,6 +1053,17 @@
         <v>88</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{58FB2B02-9E58-42C4-9B55-1C47044E51EF}"/>
@@ -1055,6 +1075,7 @@
     <hyperlink ref="E8" r:id="rId7" xr:uid="{8CF68DBD-D38D-4904-9C12-D13A3B651959}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{329AAF0A-A0F1-42B6-B9E8-9A48F07D8DE9}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{2AFA9BEB-8FF3-40FE-A410-FAE4028EA24A}"/>
+    <hyperlink ref="E11" r:id="rId10" location="gid=0" xr:uid="{78630DBE-832D-455B-B69D-99D2D85880B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
